--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2493151.357735981</v>
+        <v>2488847.052766538</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>212.4355068307147</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>233.0883550190569</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5639921989979</v>
+        <v>12.83561175645087</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587337</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602294</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.5639921989976</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>112.7933678070669</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928074</v>
+        <v>99.48674643928075</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225819</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072401</v>
+        <v>18.20026557072411</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>33.00201658838286</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597228</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404781</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989979</v>
+        <v>151.9203533622087</v>
       </c>
       <c r="V4" t="n">
-        <v>91.40474553706009</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>225.1346772411287</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>135.1575449208055</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.64107630343883</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>373.316410232349</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1729384947007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.3332554667403</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>98.53680992063508</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.2869857517495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.34574348918484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>32.4720786658923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.227129859624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.45703212904686</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.176011444184</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634793</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>5.64015276937488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833821</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.85677025083604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.00502760852017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.2269544451118</v>
+        <v>255.5772045566036</v>
       </c>
       <c r="C2" t="n">
-        <v>646.2269544451118</v>
+        <v>40.9958845255787</v>
       </c>
       <c r="D2" t="n">
-        <v>646.2269544451118</v>
+        <v>40.9958845255787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.7841715975795</v>
+        <v>40.9958845255787</v>
       </c>
       <c r="F2" t="n">
-        <v>403.8386708483761</v>
+        <v>34.05038377637523</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019135</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019135</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701132</v>
+        <v>49.149946607011</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164421</v>
+        <v>141.9503658164414</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780741</v>
+        <v>293.979253678073</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988834</v>
+        <v>494.8101216988817</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053106</v>
+        <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280196062</v>
+        <v>888.2736487381123</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.540672547814</v>
+        <v>1010.58099326632</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.215648077485</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795992</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341439</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="T2" t="n">
-        <v>899.9120886341439</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="U2" t="n">
-        <v>646.2269544451118</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="V2" t="n">
-        <v>646.2269544451118</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="W2" t="n">
-        <v>646.2269544451118</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="X2" t="n">
-        <v>646.2269544451118</v>
+        <v>788.0297140495281</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.2269544451118</v>
+        <v>521.8034593030659</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>887.2211371066293</v>
+        <v>429.7486471126072</v>
       </c>
       <c r="C3" t="n">
-        <v>712.7681078255023</v>
+        <v>429.7486471126072</v>
       </c>
       <c r="D3" t="n">
-        <v>563.833698164251</v>
+        <v>280.8142374513559</v>
       </c>
       <c r="E3" t="n">
-        <v>449.901003409638</v>
+        <v>121.5767824459004</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3664454365229</v>
+        <v>121.5767824459004</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966662</v>
+        <v>121.5767824459004</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668568</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9487307741798</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378345</v>
+        <v>95.64621773957415</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539666</v>
+        <v>339.0889684539669</v>
       </c>
       <c r="M3" t="n">
         <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>739.352761651641</v>
+        <v>739.3527616516405</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271659</v>
+        <v>909.1101923271651</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280452</v>
+        <v>1026.02243028045</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795992</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158897</v>
+        <v>1035.871862158895</v>
       </c>
       <c r="S3" t="n">
-        <v>887.2211371066293</v>
+        <v>1035.871862158895</v>
       </c>
       <c r="T3" t="n">
-        <v>887.2211371066293</v>
+        <v>839.0596531889249</v>
       </c>
       <c r="U3" t="n">
-        <v>887.2211371066293</v>
+        <v>805.7242828976291</v>
       </c>
       <c r="V3" t="n">
-        <v>887.2211371066293</v>
+        <v>805.7242828976291</v>
       </c>
       <c r="W3" t="n">
-        <v>887.2211371066293</v>
+        <v>805.7242828976291</v>
       </c>
       <c r="X3" t="n">
-        <v>887.2211371066293</v>
+        <v>805.7242828976291</v>
       </c>
       <c r="Y3" t="n">
-        <v>887.2211371066293</v>
+        <v>597.9639841326753</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7595987635669</v>
+        <v>634.5748116634587</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7595987635669</v>
+        <v>634.5748116634587</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7595987635669</v>
+        <v>484.458172251123</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7595987635669</v>
+        <v>336.5450786687298</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7595987635669</v>
+        <v>189.6551311708195</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7595987635669</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7595987635669</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829136</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591981</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953612</v>
+        <v>126.327239195361</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735301</v>
+        <v>316.5273535735298</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559549</v>
+        <v>527.4558292559543</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656829</v>
+        <v>738.803513656828</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005243</v>
+        <v>918.0010123005233</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485827</v>
+        <v>1047.814747485825</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795992</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632146</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="S4" t="n">
-        <v>925.4341625632146</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="T4" t="n">
-        <v>699.9623441352794</v>
+        <v>1054.25596879599</v>
       </c>
       <c r="U4" t="n">
-        <v>433.7360893888168</v>
+        <v>900.801066409921</v>
       </c>
       <c r="V4" t="n">
-        <v>341.4080635938066</v>
+        <v>900.801066409921</v>
       </c>
       <c r="W4" t="n">
-        <v>341.4080635938066</v>
+        <v>634.5748116634587</v>
       </c>
       <c r="X4" t="n">
-        <v>341.4080635938066</v>
+        <v>634.5748116634587</v>
       </c>
       <c r="Y4" t="n">
-        <v>341.4080635938066</v>
+        <v>634.5748116634587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4570,13 +4570,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.6198830473988</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>157.6198830473988</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178855</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>573.2316820178855</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>365.3801818123527</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.6198830473988</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1034.005947982349</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>808.5369117403633</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>542.1592551731853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>287.4747669672984</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>21.09711040012049</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>21.09711040012049</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1909.224801182914</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>905.6936235847011</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>494.7077187950935</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.530799662409</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1909.224801182914</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,34 +4880,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.0080784229705</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1434.330582357115</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1434.330582357115</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1179.646094151228</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1179.646094151228</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>951.6565432532102</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>951.6565432532102</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,16 +5132,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1944.661001050011</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1689.976512844124</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1400.559342807163</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.569791909146</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.777212765616</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3807.864035926977</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2412.158000621627</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2123.082773965825</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1868.398285759938</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6217,43 +6217,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.345997432834</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4098145049275</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>773.2931750925917</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304621</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.787041406604</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.994462263074</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6508,7 +6508,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,43 +7417,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,46 +7642,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.050829008594917</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.66077838377898</v>
+        <v>60.60994937518669</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.96589850477656</v>
+        <v>2.123866789362566</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.8420317154152</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.36925650589518</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-9.112520637813837e-14</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.29766760034533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.59775584152632</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3575234924707615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>182.9484181982414</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>6.257951202385129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811286.9139583397</v>
+        <v>811286.9139583398</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597546</v>
@@ -26346,7 +26346,7 @@
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163127</v>
+        <v>679693.2761163119</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389958833</v>
+        <v>373.9475389966146</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491462</v>
+        <v>68959.93717491452</v>
       </c>
       <c r="K3" t="n">
-        <v>38.5763239559167</v>
+        <v>38.57632395590207</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756989</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077613</v>
+        <v>246846.0156077615</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731947</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26438,28 +26438,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732057</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732005</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731927</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731969</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360375</v>
+        <v>63030.89693360371</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353262.8170128582</v>
+        <v>-353262.8170128576</v>
       </c>
       <c r="C6" t="n">
-        <v>326131.7535033264</v>
+        <v>326131.7535033257</v>
       </c>
       <c r="D6" t="n">
-        <v>17923.23513716823</v>
+        <v>17923.23513716825</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.330884569863</v>
+        <v>8465.951630213134</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091159</v>
+        <v>515951.393254759</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547591</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547591</v>
       </c>
       <c r="J6" t="n">
-        <v>447338.8353342012</v>
+        <v>446991.456079844</v>
       </c>
       <c r="K6" t="n">
-        <v>516260.1961851597</v>
+        <v>515912.8169308027</v>
       </c>
       <c r="L6" t="n">
-        <v>420916.1263715462</v>
+        <v>420568.747117189</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801889</v>
+        <v>383344.0995258321</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726917</v>
+        <v>613.6975324726909</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989979</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726917</v>
+        <v>613.6975324726909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967866592</v>
+        <v>0.3574812967873413</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989979</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025082035</v>
+        <v>0.1498878025085446</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989979</v>
+        <v>263.5639921989974</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025081467</v>
+        <v>0.1498878025080899</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985335</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989979</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025082035</v>
+        <v>0.1498878025085446</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.169849464483</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.8373849402929</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>148.8420150532048</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2716195574529</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587339</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602295</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.1671084794714</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.673946457056</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44.85171264833401</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225824</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>192.8525215021477</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>204.7303985328715</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577431</v>
+        <v>134.3383123025635</v>
       </c>
       <c r="V4" t="n">
-        <v>160.7328977867679</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.95900613759341</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27672,10 +27672,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.1032614149249</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12.28752064383326</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>184.0780879401549</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>38.23129254060501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.0650001613529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188749</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>122.2118860765769</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.168883636114775e-12</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.298904789600991e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,19 +29562,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30459,13 +30459,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30510,16 +30510,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.493936519830316e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-5.260329494105887e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684186</v>
+        <v>2.467125758684183</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612443</v>
+        <v>25.26645167612439</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167217</v>
+        <v>95.11386581167204</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611221</v>
+        <v>209.3942148611218</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262237</v>
+        <v>313.8276482262233</v>
       </c>
       <c r="L2" t="n">
-        <v>389.330948163555</v>
+        <v>389.3309481635545</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745549</v>
+        <v>433.2056958745543</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364164</v>
+        <v>440.2154169364158</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735004</v>
+        <v>415.6829351734999</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059846</v>
+        <v>354.7757680059841</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731071</v>
+        <v>266.4218267731067</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389456</v>
+        <v>154.9755884389454</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601594</v>
+        <v>56.21962822601587</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864003</v>
+        <v>10.79984300864002</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947348</v>
+        <v>0.1973700606947346</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752582</v>
+        <v>1.320028654752581</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721573</v>
+        <v>12.74869779721571</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915689</v>
+        <v>45.44835499915683</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773043</v>
+        <v>124.7137598773041</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457273</v>
+        <v>213.155679745727</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628359</v>
+        <v>286.6141164628355</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976169</v>
+        <v>334.4651551976165</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235674</v>
+        <v>343.317452623567</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419444</v>
+        <v>314.068396641944</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641137</v>
+        <v>252.0675770641134</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592945</v>
+        <v>168.5004998592943</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191912</v>
+        <v>81.95756858191902</v>
       </c>
       <c r="S3" t="n">
-        <v>24.5189533020929</v>
+        <v>24.51895330209287</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550976</v>
+        <v>5.320641814550969</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424887</v>
+        <v>0.08684399044424874</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508132</v>
+        <v>1.106667681508131</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135948</v>
+        <v>9.839281750135935</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753549</v>
+        <v>33.28051536753544</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262496</v>
+        <v>78.24140508262487</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606721</v>
+        <v>128.5746633606719</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944</v>
+        <v>164.5313023943998</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840429</v>
+        <v>173.4751893840427</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166037</v>
+        <v>169.3503371166035</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735314</v>
+        <v>156.4224464735312</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707653</v>
+        <v>133.8464257707652</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337644</v>
+        <v>92.66832740337632</v>
       </c>
       <c r="R4" t="n">
-        <v>49.7598032067202</v>
+        <v>49.75980320672014</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410081</v>
+        <v>19.28619950410079</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625656</v>
+        <v>4.72848918462565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862548</v>
+        <v>0.0603636917186254</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107742</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443584</v>
+        <v>28.34831033443555</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7377971812432</v>
+        <v>93.7377971812428</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935677</v>
+        <v>153.5645331935672</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472821</v>
+        <v>202.8594626472816</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398255</v>
+        <v>211.8531823484198</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518137</v>
+        <v>185.5847237518132</v>
       </c>
       <c r="P2" t="n">
-        <v>123.542772250715</v>
+        <v>123.5427722507146</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865757</v>
+        <v>44.11613689865723</v>
       </c>
       <c r="R2" t="n">
-        <v>1.050829008592489</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541415</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3142407713683</v>
+        <v>75.31424077136802</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829617</v>
+        <v>245.9017683983765</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755986</v>
+        <v>192.3311212755982</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402341</v>
+        <v>211.9757405402337</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975</v>
+        <v>171.4721521974996</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497835</v>
+        <v>118.0931696497832</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327302</v>
+        <v>28.51872577327282</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347892</v>
+        <v>106.3051715347891</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547161</v>
+        <v>192.1213276547159</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458835</v>
+        <v>213.0590663458833</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958323</v>
+        <v>213.4825094958321</v>
       </c>
       <c r="O4" t="n">
-        <v>181.007574387571</v>
+        <v>181.0075743875708</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356588</v>
+        <v>131.1249850356587</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682053</v>
+        <v>6.506284151681939</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089027</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620068</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>280.0487856294274</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663297</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2488847.052766538</v>
+        <v>2490607.583069324</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9236871.340643818</v>
+        <v>9236871.340643816</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989976</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>212.4355068307147</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989976</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989976</v>
+        <v>214.7130796524618</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.8878896347454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072411</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.00201658838286</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404774</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>151.9203533622087</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989976</v>
+        <v>181.781917175066</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>48.2027943444968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>373.316410232349</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>53.43995086960383</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>124.0961330064684</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986241</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670991</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>101.6969570046975</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>21.23835815357171</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,13 +2140,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>47.16611136584742</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634793</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>113.4877306469552</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5772045566036</v>
+        <v>683.0301899952944</v>
       </c>
       <c r="C2" t="n">
-        <v>40.9958845255787</v>
+        <v>683.0301899952944</v>
       </c>
       <c r="D2" t="n">
-        <v>40.9958845255787</v>
+        <v>416.8039352488317</v>
       </c>
       <c r="E2" t="n">
-        <v>40.9958845255787</v>
+        <v>416.8039352488317</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637523</v>
+        <v>150.5776805023689</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591981</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591981</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J2" t="n">
-        <v>49.149946607011</v>
+        <v>49.1499466070115</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164414</v>
+        <v>141.9503658164425</v>
       </c>
       <c r="L2" t="n">
-        <v>293.979253678073</v>
+        <v>293.979253678075</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988817</v>
+        <v>494.8101216988847</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238173</v>
+        <v>703.5044515053123</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381123</v>
+        <v>887.2333280196083</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1009.540672547816</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1053.215648077488</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="X2" t="n">
-        <v>788.0297140495281</v>
+        <v>899.9120886341448</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.8034593030659</v>
+        <v>683.0301899952944</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.7486471126072</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7486471126072</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8142374513559</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957415</v>
+        <v>95.64621773957467</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539669</v>
+        <v>339.088968453966</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168092</v>
+        <v>529.4967785168089</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516405</v>
+        <v>739.3527616516411</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271651</v>
+        <v>909.1101923271664</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="T3" t="n">
-        <v>839.0596531889249</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="U3" t="n">
-        <v>805.7242828976291</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="V3" t="n">
-        <v>805.7242828976291</v>
+        <v>819.10386056425</v>
       </c>
       <c r="W3" t="n">
-        <v>805.7242828976291</v>
+        <v>564.8665038360484</v>
       </c>
       <c r="X3" t="n">
-        <v>805.7242828976291</v>
+        <v>357.0150036305156</v>
       </c>
       <c r="Y3" t="n">
-        <v>597.9639841326753</v>
+        <v>149.2547048655617</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.5748116634587</v>
+        <v>649.8452914958302</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5748116634587</v>
+        <v>649.8452914958302</v>
       </c>
       <c r="D4" t="n">
-        <v>484.458172251123</v>
+        <v>499.7286520834945</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5450786687298</v>
+        <v>351.8155585011013</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6551311708195</v>
+        <v>204.925611003191</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591981</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591981</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591981</v>
+        <v>36.35559920829131</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953614</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735298</v>
+        <v>316.5273535735305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559543</v>
+        <v>527.4558292559553</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656828</v>
+        <v>738.8035136568295</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005233</v>
+        <v>918.001012300525</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="U4" t="n">
-        <v>900.801066409921</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="V4" t="n">
-        <v>900.801066409921</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="W4" t="n">
-        <v>634.5748116634587</v>
+        <v>870.6378706393604</v>
       </c>
       <c r="X4" t="n">
-        <v>634.5748116634587</v>
+        <v>870.6378706393604</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.5748116634587</v>
+        <v>649.8452914958302</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4573,7 +4573,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>85.01124519141231</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.481876182945</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.481876182945</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.481876182945</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>905.6936235847011</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7077187950935</v>
+        <v>116.8908811564453</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.481876182945</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744481</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637004</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>474.626148862195</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939401</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.660776418797</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925669</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490367</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>196.5408620426159</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="20">
@@ -5746,52 +5746,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,52 +6208,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111693</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6943,10 +6943,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,19 +6967,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>94.65038286230612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,34 +7417,34 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,31 +7663,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.050829008594917</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518669</v>
+        <v>61.66077838377723</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362566</v>
+        <v>2.123866789362296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.8420317154152</v>
+        <v>97.84203171541307</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241567</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-9.112520637813837e-14</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392193808</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>38.59775584152632</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>265.2846401830193</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.26785128072174</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811286.9139583398</v>
+        <v>811286.9139583396</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
@@ -26325,25 +26325,25 @@
         <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
@@ -26352,7 +26352,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163119</v>
+        <v>679693.2761163133</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389966146</v>
+        <v>373.9475389951887</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491452</v>
+        <v>68959.93717491468</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395590207</v>
+        <v>38.57632395587281</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756989</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077615</v>
+        <v>246846.0156077611</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731947</v>
+        <v>8117.312426732026</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732027</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26441,10 +26441,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732057</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732005</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26456,10 +26456,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731927</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731969</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360371</v>
+        <v>63030.89693360378</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353262.8170128576</v>
+        <v>-353262.8170128583</v>
       </c>
       <c r="C6" t="n">
-        <v>326131.7535033257</v>
+        <v>326131.7535033272</v>
       </c>
       <c r="D6" t="n">
-        <v>17923.23513716825</v>
+        <v>17923.23513716835</v>
       </c>
       <c r="E6" t="n">
-        <v>8465.951630213134</v>
+        <v>8778.592959134054</v>
       </c>
       <c r="F6" t="n">
-        <v>515951.393254759</v>
+        <v>516264.03458368</v>
       </c>
       <c r="G6" t="n">
-        <v>515951.3932547591</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="H6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="I6" t="n">
-        <v>515951.3932547591</v>
+        <v>516264.0345836802</v>
       </c>
       <c r="J6" t="n">
-        <v>446991.456079844</v>
+        <v>447304.0974087653</v>
       </c>
       <c r="K6" t="n">
-        <v>515912.8169308027</v>
+        <v>516225.4582597242</v>
       </c>
       <c r="L6" t="n">
-        <v>420568.747117189</v>
+        <v>420881.3884461104</v>
       </c>
       <c r="M6" t="n">
-        <v>383344.0995258321</v>
+        <v>383656.7408547532</v>
       </c>
       <c r="N6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="O6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.0345836799</v>
       </c>
       <c r="P6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726923</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967873413</v>
+        <v>0.3574812967859771</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025080899</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985335</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.169849464483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>152.8373849402929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.11904942168479</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.3120535427133</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794714</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.673946457056</v>
+        <v>171.5248590035918</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.64529401512193</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928072</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225824</v>
+        <v>43.94827785225814</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072393</v>
       </c>
       <c r="S3" t="n">
         <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>192.8525215021477</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404791</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>127.5335881704492</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>134.3383123025635</v>
+        <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759341</v>
+        <v>104.741081161525</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.5268221531692</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>119.044026754131</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>38.23129254060501</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.26996180286667</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188749</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>21.32491501646285</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.168883636114775e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.298904789600991e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,19 +29562,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30459,13 +30459,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30510,16 +30510,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.493936519830316e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684183</v>
+        <v>2.467125758684188</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612439</v>
+        <v>25.26645167612445</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167204</v>
+        <v>95.11386581167226</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611218</v>
+        <v>209.3942148611223</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262233</v>
+        <v>313.827648226224</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635545</v>
+        <v>389.3309481635554</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745543</v>
+        <v>433.2056958745553</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364158</v>
+        <v>440.2154169364168</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734999</v>
+        <v>415.6829351735008</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059841</v>
+        <v>354.7757680059849</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731067</v>
+        <v>266.4218267731073</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389458</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601587</v>
+        <v>56.21962822601599</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864002</v>
+        <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947346</v>
+        <v>0.197370060694735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752581</v>
+        <v>1.320028654752583</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721574</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915683</v>
+        <v>45.44835499915693</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773044</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745727</v>
+        <v>213.1556797457275</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628355</v>
+        <v>286.6141164628362</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976165</v>
+        <v>334.4651551976173</v>
       </c>
       <c r="N3" t="n">
-        <v>343.317452623567</v>
+        <v>343.3174526235678</v>
       </c>
       <c r="O3" t="n">
-        <v>314.068396641944</v>
+        <v>314.0683966419447</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641134</v>
+        <v>252.0675770641139</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592943</v>
+        <v>168.5004998592947</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191902</v>
+        <v>81.9575685819192</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209287</v>
+        <v>24.51895330209292</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550969</v>
+        <v>5.320641814550982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424874</v>
+        <v>0.08684399044424894</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508131</v>
+        <v>1.106667681508134</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135935</v>
+        <v>9.839281750135958</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753544</v>
+        <v>33.28051536753551</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262487</v>
+        <v>78.24140508262504</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606719</v>
+        <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943998</v>
+        <v>164.5313023944002</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840427</v>
+        <v>173.4751893840431</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166035</v>
+        <v>169.3503371166039</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735312</v>
+        <v>156.4224464735315</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707652</v>
+        <v>133.8464257707655</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337632</v>
+        <v>92.66832740337654</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672014</v>
+        <v>49.75980320672024</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410079</v>
+        <v>19.28619950410083</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72848918462565</v>
+        <v>4.72848918462566</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186254</v>
+        <v>0.06036369171862553</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443555</v>
+        <v>28.34831033443601</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7377971812428</v>
+        <v>93.73779718124348</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935672</v>
+        <v>153.5645331935681</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472816</v>
+        <v>202.8594626472825</v>
       </c>
       <c r="N2" t="n">
-        <v>211.8531823484198</v>
+        <v>210.8023533398259</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518132</v>
+        <v>185.5847237518141</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507146</v>
+        <v>123.5427722507154</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865723</v>
+        <v>44.1161368986578</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.050829008590881</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136802</v>
+        <v>75.3142407713685</v>
       </c>
       <c r="L3" t="n">
-        <v>245.9017683983765</v>
+        <v>245.9017683983751</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755982</v>
+        <v>192.3311212755989</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402337</v>
+        <v>211.9757405402345</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974996</v>
+        <v>171.4721521975002</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497832</v>
+        <v>118.0931696497837</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327282</v>
+        <v>28.51872577327319</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347891</v>
+        <v>106.3051715347894</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.1213276547163</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458833</v>
+        <v>213.0590663458837</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958321</v>
+        <v>213.4825094958325</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875708</v>
+        <v>181.0075743875712</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356587</v>
+        <v>131.124985035659</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681939</v>
+        <v>6.506284151682152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620068</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060492</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396398</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
